--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.1638</v>
+        <v>-22.1371</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -519,7 +519,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.70509999999999</v>
+        <v>-11.7912</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.745</v>
+        <v>-21.86449999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.522299999999997</v>
+        <v>4.828099999999999</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.22170000000001</v>
+        <v>-22.20530000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.3669</v>
+        <v>-12.1419</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.93770000000001</v>
+        <v>-12.87050000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-22.0304</v>
+        <v>-22.0425</v>
       </c>
       <c r="B21" t="n">
-        <v>5.223199999999999</v>
+        <v>5.244399999999997</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -740,7 +740,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.1955</v>
+        <v>9.967800000000004</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.26179999999998</v>
+        <v>-20.19729999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.043400000000002</v>
+        <v>5.520000000000003</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.66989999999998</v>
+        <v>-21.67829999999998</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.10779999999997</v>
+        <v>-21.08889999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.817600000000002</v>
+        <v>5.784100000000006</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.3767</v>
+        <v>5.838199999999998</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.20949999999997</v>
+        <v>-20.92089999999996</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -925,7 +925,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-13.50790000000001</v>
+        <v>-13.65780000000002</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.127799999999997</v>
+        <v>8.523600000000005</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.953599999999998</v>
+        <v>8.514900000000006</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.2681</v>
+        <v>-20.2717</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.1498</v>
+        <v>-13.0732</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.859800000000005</v>
+        <v>4.460900000000004</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.2735</v>
+        <v>-12.0772</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.613100000000003</v>
+        <v>5.090600000000006</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.472199999999997</v>
+        <v>5.418999999999993</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1135,7 +1135,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.43689999999999</v>
+        <v>-13.62669999999998</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.15190000000001</v>
+        <v>-11.8974</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,10 +1160,10 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.725200000000005</v>
+        <v>5.358800000000005</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.8078</v>
+        <v>-11.2093</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-20.14319999999998</v>
+        <v>-20.19619999999998</v>
       </c>
       <c r="B53" t="n">
-        <v>9.861299999999998</v>
+        <v>9.6425</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.891800000000001</v>
+        <v>4.828200000000002</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.7891</v>
+        <v>-13.5501</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-20.25169999999999</v>
+        <v>-20.20779999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>8.421000000000006</v>
+        <v>8.377900000000004</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.2607</v>
+        <v>-12.36960000000001</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1247,7 +1247,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.09319999999999</v>
+        <v>-12.79969999999999</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.4652</v>
+        <v>-22.5829</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.48309999999999</v>
+        <v>-10.44319999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.8129</v>
+        <v>-21.85429999999999</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.1262</v>
+        <v>-11.15300000000001</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.65789999999998</v>
+        <v>-21.61029999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.349099999999998</v>
+        <v>5.0501</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1426,7 +1426,7 @@
         <v>-21.28</v>
       </c>
       <c r="B71" t="n">
-        <v>4.457699999999996</v>
+        <v>4.562799999999997</v>
       </c>
       <c r="C71" t="n">
         <v>-9.93</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.06400000000001</v>
+        <v>-19.9508</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.33520000000001</v>
+        <v>-13.16130000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8057</v>
+        <v>-21.82269999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.6711</v>
+        <v>-12.2131</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.1147</v>
+        <v>5.027600000000001</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.648499999999996</v>
+        <v>5.352999999999997</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.512099999999994</v>
+        <v>4.476699999999997</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.77279999999998</v>
+        <v>-20.11889999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.3238</v>
+        <v>-10.3361</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.15600000000002</v>
+        <v>-21.24170000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.7527</v>
+        <v>-10.7918</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.17750000000001</v>
+        <v>-10.1739</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.2286</v>
+        <v>-11.1003</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.17570000000001</v>
+        <v>-22.1281</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1846,10 +1846,10 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.962999999999998</v>
+        <v>5.776000000000002</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.3664</v>
+        <v>-12.2974</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.87159999999999</v>
+        <v>-21.932</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
